--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24201"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DCEF35F-A4A7-4FEB-B1C0-9E9BF28B76E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D8C6EA-E05F-40C6-A9F0-0193485FD3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>Had 1 hour training on what is BPM</t>
+  </si>
+  <si>
+    <t>Had 1 hour review session  on BPM</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Training </t>
+  </si>
+  <si>
+    <t>2 hour</t>
+  </si>
+  <si>
+    <t>Flow diagram on cloud kitchen using Camunda</t>
+  </si>
+  <si>
+    <t>BPM process flow review</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>Program task using Hashmap</t>
   </si>
 </sst>
 </file>
@@ -296,6 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,7 +333,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +616,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -602,13 +629,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -631,7 +658,7 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>44351</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -648,7 +675,7 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>44351</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -665,7 +692,7 @@
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>44351</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -682,7 +709,7 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>44351</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -699,7 +726,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>44351</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -713,46 +740,106 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2"/>
@@ -1698,13 +1785,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24202"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D8C6EA-E05F-40C6-A9F0-0193485FD3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7B63CD-F8FB-4329-A4EE-CAA32C1C9775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>Program task using Hashmap</t>
+  </si>
+  <si>
+    <t>Training for 2:30 hours</t>
+  </si>
+  <si>
+    <t>2:30hour</t>
+  </si>
+  <si>
+    <t>Hashtable program</t>
+  </si>
+  <si>
+    <t>program task using Hashtable</t>
+  </si>
+  <si>
+    <t>practising</t>
+  </si>
+  <si>
+    <t>4:30hour</t>
   </si>
 </sst>
 </file>
@@ -616,7 +634,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -842,25 +860,55 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24202"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7B63CD-F8FB-4329-A4EE-CAA32C1C9775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{368851AD-9DA0-4BC8-A3A1-21C269676340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Training for 2 hours</t>
   </si>
   <si>
-    <t>2hour</t>
+    <t>2hours</t>
   </si>
   <si>
     <t>Practising</t>
@@ -80,7 +80,7 @@
     <t>Practising all the topics which learned on training</t>
   </si>
   <si>
-    <t>3hour</t>
+    <t>3hours</t>
   </si>
   <si>
     <t>BPM overview</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Java Training </t>
   </si>
   <si>
-    <t>2 hour</t>
+    <t>2 hours</t>
   </si>
   <si>
     <t>Flow diagram on cloud kitchen using Camunda</t>
@@ -119,7 +119,7 @@
     <t>Training for 2:30 hours</t>
   </si>
   <si>
-    <t>2:30hour</t>
+    <t>2:30hours</t>
   </si>
   <si>
     <t>Hashtable program</t>
@@ -131,7 +131,25 @@
     <t>practising</t>
   </si>
   <si>
-    <t>4:30hour</t>
+    <t>4:30hours</t>
+  </si>
+  <si>
+    <t>training for 2:30 hours</t>
+  </si>
+  <si>
+    <t>HTML task</t>
+  </si>
+  <si>
+    <t>Creating registration login and paragraph page using HTML</t>
+  </si>
+  <si>
+    <t>1.30hours</t>
+  </si>
+  <si>
+    <t>practising all the topics which learned on training</t>
+  </si>
+  <si>
+    <t>4hours</t>
   </si>
 </sst>
 </file>
@@ -634,7 +652,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -911,25 +929,55 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24206"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{368851AD-9DA0-4BC8-A3A1-21C269676340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A2DDEF-F0E8-4301-A0C7-AC379E207703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -150,6 +150,21 @@
   </si>
   <si>
     <t>4hours</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overviw of jBPM </t>
+  </si>
+  <si>
+    <t>1:30hours</t>
+  </si>
+  <si>
+    <t>htML task</t>
+  </si>
+  <si>
+    <t>Creating 5pages using HTML and linking</t>
   </si>
 </sst>
 </file>
@@ -652,7 +667,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -980,32 +995,72 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24206"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A2DDEF-F0E8-4301-A0C7-AC379E207703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A8560C-E330-463C-A0E5-95CCA8AB281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>Creating 5pages using HTML and linking</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>Practsing</t>
+  </si>
+  <si>
+    <t>6hr</t>
+  </si>
+  <si>
+    <t>8hr</t>
   </si>
 </sst>
 </file>
@@ -666,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1063,39 +1075,89 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44358</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44358</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24206"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A8560C-E330-463C-A0E5-95CCA8AB281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9E981E-A245-4EC0-89C1-C273907ABF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -176,7 +176,22 @@
     <t>6hr</t>
   </si>
   <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>2.5hr</t>
+  </si>
+  <si>
     <t>8hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training </t>
+  </si>
+  <si>
+    <t>training for 6hours on technical topics</t>
+  </si>
+  <si>
+    <t>5hr</t>
   </si>
 </sst>
 </file>
@@ -375,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -396,6 +411,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1143,42 +1159,72 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2">
+      <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="14">
         <v>44362</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9E981E-A245-4EC0-89C1-C273907ABF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AF0245-025B-4430-BF34-8463F133D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>5hr</t>
+  </si>
+  <si>
+    <t>Technical training for 2hours</t>
+  </si>
+  <si>
+    <t>BPM Training for 1.5hr</t>
+  </si>
+  <si>
+    <t>1.5hr</t>
+  </si>
+  <si>
+    <t>Istalling JPBM and Practising all the topics which we learned in the training</t>
   </si>
 </sst>
 </file>
@@ -402,6 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,7 +424,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -708,13 +720,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -1162,7 +1174,7 @@
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>44362</v>
       </c>
       <c r="D29" t="s">
@@ -1227,25 +1239,55 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2"/>
@@ -2044,13 +2086,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24216"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AF0245-025B-4430-BF34-8463F133D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7564586-B19A-4FD5-AC26-E3707350E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Istalling JPBM and Practising all the topics which we learned in the training</t>
+  </si>
+  <si>
+    <t>BPM training for 1.5hr</t>
+  </si>
+  <si>
+    <t>9hr</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -424,6 +430,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1290,53 +1297,123 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="2">
+        <v>34</v>
+      </c>
+      <c r="C39" s="15">
+        <v>44368</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="2">
+        <v>35</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="B41" s="2">
+        <v>36</v>
+      </c>
+      <c r="C41" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="2">
+        <v>37</v>
+      </c>
+      <c r="C42" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24216"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7564586-B19A-4FD5-AC26-E3707350E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BCD4547-298B-461B-8EF7-25D4FEA56555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>9hr</t>
+  </si>
+  <si>
+    <t>7hr</t>
   </si>
 </sst>
 </file>
@@ -421,6 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,7 +434,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +717,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -727,13 +730,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -1351,7 +1354,7 @@
       <c r="B39" s="2">
         <v>34</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="12">
         <v>44368</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1416,18 +1419,38 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="2">
+        <v>38</v>
+      </c>
+      <c r="C43" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="2">
+        <v>39</v>
+      </c>
+      <c r="C44" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2"/>
@@ -2163,13 +2186,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24216"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BCD4547-298B-461B-8EF7-25D4FEA56555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7065A67-83DF-4D61-A1CE-B39E3EB6FDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>7hr</t>
+  </si>
+  <si>
+    <t>BPM Training</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1453,25 +1456,55 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>40</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="B46" s="2">
+        <v>41</v>
+      </c>
+      <c r="C46" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="2">
+        <v>42</v>
+      </c>
+      <c r="C47" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24216"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7065A67-83DF-4D61-A1CE-B39E3EB6FDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F70F55-E584-4CF0-B1CF-778215580823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -720,7 +720,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1507,25 +1507,55 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="2">
+        <v>43</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="B49" s="2">
+        <v>44</v>
+      </c>
+      <c r="C49" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="2">
+        <v>45</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24223"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F70F55-E584-4CF0-B1CF-778215580823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2322DD39-4A06-4054-863C-81335990AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>BPM Training</t>
+  </si>
+  <si>
+    <t>Bpm Training</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>Rest API Training</t>
+  </si>
+  <si>
+    <t>3hr</t>
   </si>
 </sst>
 </file>
@@ -719,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1558,60 +1570,140 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="B51" s="2">
+        <v>46</v>
+      </c>
+      <c r="C51" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="2">
+        <v>47</v>
+      </c>
+      <c r="C52" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="B53" s="2">
+        <v>48</v>
+      </c>
+      <c r="C53" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="B54" s="2">
+        <v>49</v>
+      </c>
+      <c r="C54" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="2">
+        <v>50</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="2"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="B56" s="2">
+        <v>51</v>
+      </c>
+      <c r="C56" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="B57" s="2">
+        <v>52</v>
+      </c>
+      <c r="C57" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="B58" s="2">
+        <v>53</v>
+      </c>
+      <c r="C58" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="2"/>

--- a/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
+++ b/Gokul/Timesheet/Schwall_TraineeName_Timesheet_June_2021 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24230"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2322DD39-4A06-4054-863C-81335990AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DAA4555-D75A-43E0-BB6C-1BBFC31908D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +257,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -426,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -448,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1706,53 +1715,121 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="B59" s="2">
+        <v>54</v>
+      </c>
+      <c r="C59" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="B60" s="2">
+        <v>55</v>
+      </c>
+      <c r="C60" s="10">
+        <v>44378</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="2"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="B61" s="2">
+        <v>56</v>
+      </c>
+      <c r="C61" s="10">
+        <v>44378</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="2"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="B62" s="2">
+        <v>57</v>
+      </c>
+      <c r="C62" s="10">
+        <v>44379</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="B63" s="2">
+        <v>58</v>
+      </c>
+      <c r="C63" s="10">
+        <v>44379</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15">
+      <c r="B64" s="2">
+        <v>59</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="2">
+        <v>60</v>
+      </c>
+      <c r="C65" s="10">
+        <v>44379</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="2"/>
